--- a/trunk/01. Documents/Dang_ky_thoi_gian_tham_gia_du_an_TRM.v2011.09.11.xlsx
+++ b/trunk/01. Documents/Dang_ky_thoi_gian_tham_gia_du_an_TRM.v2011.09.11.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19095" windowHeight="4620"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>ĐĂNG KÝ THỜI GIAN THAM GIA DỰ ÁN</t>
   </si>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,11 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -302,6 +307,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,19 +518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18.75">
+    <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
@@ -533,7 +540,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -566,7 +573,7 @@
       </c>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -611,7 +618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -646,7 +653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -665,7 +672,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -684,24 +691,36 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -725,24 +744,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
